--- a/Mothership enhanced listing copy.xlsx
+++ b/Mothership enhanced listing copy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>App name</t>
   </si>
@@ -45,6 +45,42 @@
   </si>
   <si>
     <t>ch</t>
+  </si>
+  <si>
+    <t>Key Benefit 1 Title</t>
+  </si>
+  <si>
+    <t>Key Benefit 1 Description</t>
+  </si>
+  <si>
+    <t>Key Benefit 2 Title</t>
+  </si>
+  <si>
+    <t>Key Benefit 2 Description</t>
+  </si>
+  <si>
+    <t>Key Benefit 3 Title</t>
+  </si>
+  <si>
+    <t>Key Benefit 3 Description</t>
+  </si>
+  <si>
+    <t>Mothership makes it easy to sell your products in other online stores. Improve your bottom line by selling where your customers shop.</t>
+  </si>
+  <si>
+    <t>Sell everywhere</t>
+  </si>
+  <si>
+    <t>Listing your products in Mothership's marketplace gets your products in front of established retailers with real sales volume.</t>
+  </si>
+  <si>
+    <t>Find qualified retailers</t>
+  </si>
+  <si>
+    <t>Mothership integrates right into your existing workflow. Use your current payment gateway and fulfillment processes.</t>
+  </si>
+  <si>
+    <t>Use your current workflow</t>
   </si>
 </sst>
 </file>
@@ -80,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Section"/>
     <tableColumn id="2" name="Copy"/>
@@ -414,15 +451,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -458,6 +496,78 @@
       <c r="C3">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
         <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Mothership enhanced listing copy.xlsx
+++ b/Mothership enhanced listing copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/development/mothership app store listing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/development/mothership_app_store/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>App name</t>
   </si>
@@ -65,35 +65,79 @@
     <t>Key Benefit 3 Description</t>
   </si>
   <si>
-    <t>Mothership makes it easy to sell your products in other online stores. Improve your bottom line by selling where your customers shop.</t>
-  </si>
-  <si>
-    <t>Sell everywhere</t>
-  </si>
-  <si>
-    <t>Listing your products in Mothership's marketplace gets your products in front of established retailers with real sales volume.</t>
-  </si>
-  <si>
-    <t>Find qualified retailers</t>
-  </si>
-  <si>
     <t>Mothership integrates right into your existing workflow. Use your current payment gateway and fulfillment processes.</t>
   </si>
   <si>
     <t>Use your current workflow</t>
+  </si>
+  <si>
+    <t>automate/streamline operations</t>
+  </si>
+  <si>
+    <t>connect to new partners</t>
+  </si>
+  <si>
+    <t>sell through their stores</t>
+  </si>
+  <si>
+    <t>Leverage the power of Shopify's 500,000+ stores with Mothership by selling your inventory through any in a private drop shipping network.</t>
+  </si>
+  <si>
+    <t>Don't waste your time sending the same files day-after-day. Hook your inventory up to Shopify and watch all your retailers sync up. Set the safety stock and you'll never send another inventory update file, and never have another back-order in your drop ship channel. Updating a product description or image? Those sync too.</t>
+  </si>
+  <si>
+    <t>Any updates you make to your inventory, like changing an item description or adding a new image,  are applied by Mothership throughout your network, so every one always stays up to date and happy</t>
+  </si>
+  <si>
+    <t>Leverage the power of Shopify's 500,000 merchants with Mothership. Connect to any store in a private drop shipping network</t>
+  </si>
+  <si>
+    <t>Private dropshipping networks</t>
+  </si>
+  <si>
+    <t>Sell your inventory through any store you are connected to. When you can offer your customers want where they want it, you've got growth!</t>
+  </si>
+  <si>
+    <t>Grow drop ship channel sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4F5D75"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF4F5D75"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4F5D75"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF4F5D75"/>
+      <name val="Source Sans Pro"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,18 +156,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -145,8 +221,8 @@
   <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Section"/>
-    <tableColumn id="2" name="Copy"/>
-    <tableColumn id="3" name="ch" dataDxfId="0">
+    <tableColumn id="2" name="Copy" dataDxfId="0"/>
+    <tableColumn id="3" name="ch" dataDxfId="1">
       <calculatedColumnFormula>LEN(Table1[[#This Row],[Copy]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -451,34 +527,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2">
@@ -486,11 +562,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
@@ -498,80 +574,126 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="E5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="32">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
         <v>116</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="92">
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <f>LEN(B11)</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32">
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <f>LEN(B16)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="72">
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <f>LEN(B18)</f>
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Mothership enhanced listing copy.xlsx
+++ b/Mothership enhanced listing copy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>App name</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Mothership</t>
   </si>
   <si>
-    <t>Sell products from your inventory through other Shopify stores</t>
-  </si>
-  <si>
     <t>ch</t>
   </si>
   <si>
@@ -65,53 +62,92 @@
     <t>Key Benefit 3 Description</t>
   </si>
   <si>
-    <t>Mothership integrates right into your existing workflow. Use your current payment gateway and fulfillment processes.</t>
-  </si>
-  <si>
-    <t>Use your current workflow</t>
-  </si>
-  <si>
-    <t>automate/streamline operations</t>
-  </si>
-  <si>
-    <t>connect to new partners</t>
-  </si>
-  <si>
-    <t>sell through their stores</t>
-  </si>
-  <si>
-    <t>Leverage the power of Shopify's 500,000+ stores with Mothership by selling your inventory through any in a private drop shipping network.</t>
-  </si>
-  <si>
-    <t>Don't waste your time sending the same files day-after-day. Hook your inventory up to Shopify and watch all your retailers sync up. Set the safety stock and you'll never send another inventory update file, and never have another back-order in your drop ship channel. Updating a product description or image? Those sync too.</t>
-  </si>
-  <si>
-    <t>Any updates you make to your inventory, like changing an item description or adding a new image,  are applied by Mothership throughout your network, so every one always stays up to date and happy</t>
-  </si>
-  <si>
-    <t>Leverage the power of Shopify's 500,000 merchants with Mothership. Connect to any store in a private drop shipping network</t>
-  </si>
-  <si>
-    <t>Private dropshipping networks</t>
-  </si>
-  <si>
-    <t>Sell your inventory through any store you are connected to. When you can offer your customers want where they want it, you've got growth!</t>
-  </si>
-  <si>
-    <t>Grow drop ship channel sales</t>
+    <t>Connect to any Shopify store</t>
+  </si>
+  <si>
+    <t>Sell your inventory through any of Shopify's 500,000+ stores</t>
+  </si>
+  <si>
+    <t>Growth, not grind</t>
+  </si>
+  <si>
+    <t>Leverage the power of Shopify's 500,000+ stores with Mothership. Connect and sell through any store in a private drop shipping network</t>
+  </si>
+  <si>
+    <t>Automate relationships with network partners for growth. Send files and make updates once- Mothership makes sure everyone stays in the loop</t>
+  </si>
+  <si>
+    <t>Easy to set up, easy to use</t>
+  </si>
+  <si>
+    <t>Designed for simplicity and ease-of-use. Everything runs inside your Shopify dashboard so you and your partners can easily use Mothership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mothership is a B2B marketplace that makes it easy for suppliers to dropship products for established retailers. In addition to helping you partner with high-quality merchants, Mothership provides all of the backend functionality you need to run your own dropshipping operation. </t>
+  </si>
+  <si>
+    <t>* Share your product data with your retailers</t>
+  </si>
+  <si>
+    <t>* Automatically send retailers inventory and content updates</t>
+  </si>
+  <si>
+    <t>* Accept orders from other online merchants, regardless of the retailer's e-commerce platform</t>
+  </si>
+  <si>
+    <t>* Manage invoicing your retailers right from your Shopify store</t>
+  </si>
+  <si>
+    <t># Find retailers and sell your products in our exclusive B2B marketplace</t>
+  </si>
+  <si>
+    <t>Finding businesses to partner with can be challenging. However, with Mothership's marketplace we're making it easy to find qualified and established resellers. We vet everyone who installs Mothership &amp; Mothership Connect, so you know that every retailer has a successful track record of selling online.</t>
+  </si>
+  <si>
+    <t># Who is Mothership For?</t>
+  </si>
+  <si>
+    <t>Mothership is best suited for established merchants that produce their own products or are a principal distributor of someone else's products. Although there are no hard and fast requirements, we are generally looking for suppliers with an established order history, a well-designed storefront, and the capacity to manage the complexities of being a dropship supplier.</t>
+  </si>
+  <si>
+    <t># I'm looking for new products to sell in my store, can Mothership help me?</t>
+  </si>
+  <si>
+    <t>If you want to source new products to carry in your Shopify store, checkout our app for retailers, Mothership Connect.</t>
+  </si>
+  <si>
+    <t># What is Mothership?
+Mothership is a B2B marketplace that makes it easy for suppliers to dropship products for established retailers. In addition to helping you partner with high-quality merchants, Mothership provides all of the backend functionality you need to run your own dropshipping operation. 
+* Share your product data with your retailers
+* Automatically send retailers inventory and content updates
+* Accept orders from other online merchants, regardless of the retailer's e-commerce platform
+* Manage invoicing your retailers right from your Shopify store
+# Find retailers and sell your products in our exclusive B2B marketplace
+Finding businesses to partner with can be challenging. However, with Mothership's marketplace we're making it easy to find qualified and established resellers. We vet everyone who installs Mothership &amp; Mothership Connect, so you know that every retailer has a successful track record of selling online.
+# Who is Mothership For?
+Mothership is best suited for established merchants that produce their own products or are a principal distributor of someone else's products. Although there are no hard and fast requirements, we are generally looking for suppliers with an established order history, a well-designed storefront, and the capacity to manage the complexities of being a dropship supplier.
+# I'm looking for new products to sell in my store, can Mothership help me?
+If you want to source new products to carry in your Shopify store, checkout our app for retailers, Mothership Connect.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF4F5D75"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -173,23 +209,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,34 +565,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="92.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2">
@@ -566,36 +604,36 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C3">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E5">
         <v>140</v>
@@ -603,92 +641,123 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="92">
-      <c r="B11" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23">
+      <c r="B11" s="9"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="409.6">
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f>LEN(B12)</f>
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
-        <f>LEN(B11)</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32">
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <f>LEN(B16)</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="72">
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2">
-        <f>LEN(B18)</f>
-        <v>323</v>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18">
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Mothership enhanced listing copy.xlsx
+++ b/Mothership enhanced listing copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140"/>
+    <workbookView xWindow="-2460" yWindow="-20540" windowWidth="34180" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>App name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Connect to any Shopify store</t>
   </si>
   <si>
-    <t>Sell your inventory through any of Shopify's 500,000+ stores</t>
-  </si>
-  <si>
     <t>Growth, not grind</t>
   </si>
   <si>
@@ -83,58 +80,48 @@
     <t>Designed for simplicity and ease-of-use. Everything runs inside your Shopify dashboard so you and your partners can easily use Mothership</t>
   </si>
   <si>
-    <t xml:space="preserve">Mothership is a B2B marketplace that makes it easy for suppliers to dropship products for established retailers. In addition to helping you partner with high-quality merchants, Mothership provides all of the backend functionality you need to run your own dropshipping operation. </t>
-  </si>
-  <si>
-    <t>* Share your product data with your retailers</t>
-  </si>
-  <si>
-    <t>* Automatically send retailers inventory and content updates</t>
-  </si>
-  <si>
-    <t>* Accept orders from other online merchants, regardless of the retailer's e-commerce platform</t>
-  </si>
-  <si>
-    <t>* Manage invoicing your retailers right from your Shopify store</t>
-  </si>
-  <si>
-    <t># Find retailers and sell your products in our exclusive B2B marketplace</t>
-  </si>
-  <si>
-    <t>Finding businesses to partner with can be challenging. However, with Mothership's marketplace we're making it easy to find qualified and established resellers. We vet everyone who installs Mothership &amp; Mothership Connect, so you know that every retailer has a successful track record of selling online.</t>
-  </si>
-  <si>
-    <t># Who is Mothership For?</t>
-  </si>
-  <si>
-    <t>Mothership is best suited for established merchants that produce their own products or are a principal distributor of someone else's products. Although there are no hard and fast requirements, we are generally looking for suppliers with an established order history, a well-designed storefront, and the capacity to manage the complexities of being a dropship supplier.</t>
-  </si>
-  <si>
-    <t># I'm looking for new products to sell in my store, can Mothership help me?</t>
-  </si>
-  <si>
-    <t>If you want to source new products to carry in your Shopify store, checkout our app for retailers, Mothership Connect.</t>
-  </si>
-  <si>
-    <t># What is Mothership?
-Mothership is a B2B marketplace that makes it easy for suppliers to dropship products for established retailers. In addition to helping you partner with high-quality merchants, Mothership provides all of the backend functionality you need to run your own dropshipping operation. 
-* Share your product data with your retailers
-* Automatically send retailers inventory and content updates
-* Accept orders from other online merchants, regardless of the retailer's e-commerce platform
-* Manage invoicing your retailers right from your Shopify store
-# Find retailers and sell your products in our exclusive B2B marketplace
-Finding businesses to partner with can be challenging. However, with Mothership's marketplace we're making it easy to find qualified and established resellers. We vet everyone who installs Mothership &amp; Mothership Connect, so you know that every retailer has a successful track record of selling online.
-# Who is Mothership For?
-Mothership is best suited for established merchants that produce their own products or are a principal distributor of someone else's products. Although there are no hard and fast requirements, we are generally looking for suppliers with an established order history, a well-designed storefront, and the capacity to manage the complexities of being a dropship supplier.
-# I'm looking for new products to sell in my store, can Mothership help me?
-If you want to source new products to carry in your Shopify store, checkout our app for retailers, Mothership Connect.</t>
+    <t>Sell your products through any of Shopify's 500,000+ stores</t>
+  </si>
+  <si>
+    <t>Detailed Description1</t>
+  </si>
+  <si>
+    <t>Detailed Description2</t>
+  </si>
+  <si>
+    <t>Detailed Description3</t>
+  </si>
+  <si>
+    <t>Detailed Description4</t>
+  </si>
+  <si>
+    <t># Focus on growing your Shopify drop ship operations, not managing them
+Mothership lets you focus on the things that matter in your business by automating your drop ship operations and giving you the power to sell your inventory at any of the 500,000 stores on Shopify's platform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># How can my business use Mothership?
+Suppliers -&gt; Mothership -&gt; Retailers -&gt; Customers
+Suppliers: Sell your inventory throughout your private drop shipping network. Connect to retailers through Mothership and publish catalogs of products they can add to their stores. Any updates you make to your inventory, like changing an item description or adding a new image,  are applied by Mothership throughout your network, so every one always stays up to date and happy.
+Retailers: Pick which products they will add to their stores from suppliers and set their markup.  Regardless of which supplier a product comes from or which retailer it is sold through, Mothership always routes it to the right supplier for fulfillment.  
+Customers: Ahh, the lifeblood of every business. Mothership's private drop shipping networks help Shopify stores solve the crucial problem of being able to offer them what they want, where they want it! When you've got that, you've got growth! Simple, right? </t>
+  </si>
+  <si>
+    <t># What does Mothership do?
+Mothership lets Shopify stores connect together to form private drop shipping networks. Stores on the network can act as suppliers or retailers: Suppliers offer their inventory to retailers and fulfill orders, and retailers sell items from suppliers through their stores. This simple relationship lies at the heart of Mothership, and coupled with a suite of automation functions gives you the unparralled reach and efficiency to grow your drop ship channel sales- all in a cheap to deploy and simple to use app. Pretty cool, huh?</t>
+  </si>
+  <si>
+    <t># Mothership helps you drive growth in your drop ship channel!
+* Streamline operations and connect to new partners: Connect to any merchant in a private drop shipping network (with their permission, of course) and add your merchandise to their store
+* Growth, not grind: Don't waste your time sending the same files day-after-day. Stay updated on inventory levels, imagery, and descriptions, all synced in real-time across your network
+* All of your drop ship orders in your Shopify dashboard: Every order for your items get routed straight to your Shopify order feed. You'll never have to spend another minute tracking down orders from your drop ship partners
+* Easy to set up, easy to use: Mothership runs inside your Shopify dashboard and was designed for simplicity and ease-of-use so anyone can use it with minimal training (which we provide, of course).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,37 +130,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF4F5D75"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF4F5D75"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF4F5D75"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4F5D75"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF4F5D75"/>
-      <name val="Source Sans Pro"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -205,41 +165,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,12 +314,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Section"/>
-    <tableColumn id="2" name="Copy" dataDxfId="0"/>
-    <tableColumn id="3" name="ch" dataDxfId="1">
+    <tableColumn id="1" name="Section" dataDxfId="0"/>
+    <tableColumn id="2" name="Copy" dataDxfId="1"/>
+    <tableColumn id="3" name="ch" dataDxfId="2">
       <calculatedColumnFormula>LEN(Table1[[#This Row],[Copy]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -565,200 +624,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105" style="6" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>134</v>
+      </c>
+      <c r="E5" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C6" s="3">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
-        <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>134</v>
-      </c>
-      <c r="E5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <f>LEN(Table1[[#This Row],[Copy]])</f>
+      <c r="C7" s="3">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="32">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
-        <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <f>LEN(Table1[[#This Row],[Copy]])</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="32">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f>LEN(Table1[[#This Row],[Copy]])</f>
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="23">
-      <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="409.6">
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
         <f>LEN(B12)</f>
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="18">
-      <c r="B18" s="8" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="C13" s="3">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mothership enhanced listing copy.xlsx
+++ b/Mothership enhanced listing copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2460" yWindow="-20540" windowWidth="34180" windowHeight="19540"/>
+    <workbookView minimized="1" xWindow="-2460" yWindow="-20540" windowWidth="34180" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>App name</t>
   </si>
@@ -116,12 +116,18 @@
 * All of your drop ship orders in your Shopify dashboard: Every order for your items get routed straight to your Shopify order feed. You'll never have to spend another minute tracking down orders from your drop ship partners
 * Easy to set up, easy to use: Mothership runs inside your Shopify dashboard and was designed for simplicity and ease-of-use so anyone can use it with minimal training (which we provide, of course).</t>
   </si>
+  <si>
+    <t>Pricing URL</t>
+  </si>
+  <si>
+    <t>https://www.mothership.fm/?utm_source=App%20Store</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +137,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,10 +204,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -218,8 +233,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -314,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C17"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Section" dataDxfId="0"/>
     <tableColumn id="2" name="Copy" dataDxfId="1"/>
@@ -624,23 +643,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105" style="6" customWidth="1"/>
+    <col min="2" max="2" width="111" style="6" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -651,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -663,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -675,7 +694,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -687,7 +706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -698,11 +717,8 @@
         <f>LEN(Table1[[#This Row],[Copy]])</f>
         <v>134</v>
       </c>
-      <c r="E5" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -714,7 +730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -726,7 +742,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -738,7 +754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
@@ -750,7 +766,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -762,7 +778,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -774,7 +790,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -786,7 +802,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -798,22 +814,41 @@
         <v>859</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="3">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="7"/>
+      <c r="C17" s="3">
+        <f>LEN(Table1[[#This Row],[Copy]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
@@ -841,10 +876,13 @@
       <c r="B23" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>